--- a/classfiers/bloated/svm/nearmiss/bloated-svm-sigmoid-nearmiss-results.xlsx
+++ b/classfiers/bloated/svm/nearmiss/bloated-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7869822485207101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7407407407407408</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9053254437869822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.467948717948718</v>
+        <v>0.7692307692307692</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8974358974358975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4557983193277311</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4769230769230769</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4606119162640901</v>
+        <v>0.7036363636363637</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6115384615384615</v>
+        <v>0.9538461538461538</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/svm/nearmiss/bloated-svm-sigmoid-nearmiss-results.xlsx
+++ b/classfiers/bloated/svm/nearmiss/bloated-svm-sigmoid-nearmiss-results.xlsx
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -565,13 +565,13 @@
         <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6461538461538462</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7036363636363637</v>
+        <v>0.6933333333333332</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9538461538461538</v>
+        <v>0.9333333333333332</v>
       </c>
     </row>
   </sheetData>
